--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12827.95228150548</v>
+        <v>-12827.95228150552</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="F2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="G2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="H2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="I2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="J2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="K2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="L2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="M2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="N2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="O2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
       <c r="P2" t="n">
-        <v>35427.77570238469</v>
+        <v>35427.77570238468</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,40 +26528,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-101283.8364026237</v>
+        <v>-101283.8364026236</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="G6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="I6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="K6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="L6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="M6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="N6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="O6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
       <c r="P6" t="n">
-        <v>31816.16359737637</v>
+        <v>31816.16359737636</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12827.95228150552</v>
+        <v>898.4058559127097</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="F2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="G2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="H2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="I2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="J2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="K2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="L2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="M2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="N2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="O2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="P2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-101283.8364026236</v>
+        <v>-101283.8364026237</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="G6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="I6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="K6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="L6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="M6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="N6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="O6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="P6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>898.4058559127097</v>
+        <v>-156853.88974747</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10619515.3673645</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>24895147.99159022</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1229631.243111212</v>
+        <v>2855007.140041029</v>
       </c>
     </row>
     <row r="11">
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,13 +22570,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
@@ -22585,16 +22585,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>126.8376266666667</v>
@@ -22670,10 +22670,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22743,13 +22743,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,13 +22807,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
@@ -22822,16 +22822,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,16 +22883,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
@@ -22904,13 +22904,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,10 +22983,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,13 +23044,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
@@ -23062,13 +23062,13 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,13 +23120,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -23144,10 +23144,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,31 +23281,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,34 +23357,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23457,10 +23457,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23542,7 +23542,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23594,16 +23594,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>51.84373129681028</v>
@@ -23612,16 +23612,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23676,7 +23676,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>94.30397654773019</v>
@@ -23694,10 +23694,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
         <v>163.8605191622716</v>
@@ -23758,10 +23758,10 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>113.4004983079896</v>
@@ -23776,10 +23776,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,16 +23831,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>51.84373129681028</v>
@@ -23849,16 +23849,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23919,7 +23919,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>92.09541281912071</v>
@@ -23934,7 +23934,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -23998,10 +23998,10 @@
         <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>110.5750244233121</v>
@@ -24010,13 +24010,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24068,16 +24068,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>51.84373129681028</v>
@@ -24086,16 +24086,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24168,10 +24168,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24247,13 +24247,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,16 +24305,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>51.84373129681028</v>
@@ -24323,16 +24323,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -24405,10 +24405,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24466,13 +24466,13 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -24490,7 +24490,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
         <v>193.8433399116564</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24624,10 +24624,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>90.4687457914608</v>
@@ -24645,7 +24645,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24703,10 +24703,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24721,10 +24721,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>173.7492132756177</v>
@@ -24779,16 +24779,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24797,16 +24797,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,28 +24861,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24940,31 +24940,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25016,16 +25016,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>51.84373129681028</v>
@@ -25040,10 +25040,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25101,25 +25101,25 @@
         <v>105.873818686614</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
         <v>163.8605191622716</v>
@@ -25195,7 +25195,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -25253,16 +25253,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
@@ -25271,16 +25271,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25335,10 +25335,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>90.4687457914608</v>
@@ -25353,10 +25353,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25490,10 +25490,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>80.29914934735042</v>
@@ -25514,10 +25514,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25572,10 +25572,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>90.4687457914608</v>
@@ -25590,10 +25590,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25651,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25672,10 +25672,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25727,13 +25727,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>61.18167021676314</v>
@@ -25748,13 +25748,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25809,28 +25809,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25906,13 +25906,13 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25964,13 +25964,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>61.18167021676314</v>
@@ -25985,13 +25985,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26049,25 +26049,25 @@
         <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.677023626863955e-12</v>
+        <v>196804.021191861</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.677023626863955e-12</v>
+        <v>262376.3422491231</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.677023626863955e-12</v>
+        <v>220540.7408369169</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>141711.1028095387</v>
+        <v>321940.7587568038</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141711.1028095387</v>
+        <v>197812.8559873381</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>141711.1028095387</v>
+        <v>248698.554822268</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>141711.1028095387</v>
+        <v>250003.0550026181</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>141711.1028095387</v>
+        <v>216951.9649299715</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141711.1028095387</v>
+        <v>205822.5766024321</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141711.1028095387</v>
+        <v>285020.3006486058</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141711.1028095387</v>
+        <v>298518.0630271988</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141711.1028095387</v>
+        <v>204672.2210708761</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141711.1028095387</v>
+        <v>325739.1895781813</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141711.1028095387</v>
+        <v>247084.2602351896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141711.1028095387</v>
+        <v>247197.1703517504</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>38806.42671388812</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>51736.18016179894</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>43486.90664389912</v>
       </c>
       <c r="E2" t="n">
-        <v>35427.77570238469</v>
+        <v>70966.01772015533</v>
       </c>
       <c r="F2" t="n">
-        <v>35427.77570238469</v>
+        <v>46490.09323040149</v>
       </c>
       <c r="G2" t="n">
-        <v>35427.77570238469</v>
+        <v>56523.89300066936</v>
       </c>
       <c r="H2" t="n">
-        <v>35427.77570238469</v>
+        <v>56781.11838834402</v>
       </c>
       <c r="I2" t="n">
-        <v>35427.77570238469</v>
+        <v>50264.00203599115</v>
       </c>
       <c r="J2" t="n">
-        <v>35427.77570238469</v>
+        <v>48069.47476013835</v>
       </c>
       <c r="K2" t="n">
-        <v>35427.77570238469</v>
+        <v>63685.9273889613</v>
       </c>
       <c r="L2" t="n">
-        <v>35427.77570238469</v>
+        <v>66347.45799882473</v>
       </c>
       <c r="M2" t="n">
-        <v>35427.77570238469</v>
+        <v>47842.64409194417</v>
       </c>
       <c r="N2" t="n">
-        <v>35427.77570238469</v>
+        <v>71715.00407930017</v>
       </c>
       <c r="O2" t="n">
-        <v>35427.77570238469</v>
+        <v>56205.58139194968</v>
       </c>
       <c r="P2" t="n">
-        <v>35427.77570238469</v>
+        <v>56227.84535859546</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41578.31433630869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>55431.62160192743</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>46593.11426132047</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38076.6878761828</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11852.4830657323</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22602.98281959072</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22878.58144924215</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15895.95678600694</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13544.67756187891</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>30276.59109276066</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>33128.23103190005</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>13301.64470309944</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>38879.17326098085</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>22261.93466739107</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>22285.7889173687</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="E6" t="n">
-        <v>-101283.8364026237</v>
+        <v>-119279.3252419175</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808246</v>
       </c>
       <c r="G6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808247</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808246</v>
       </c>
       <c r="I6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808245</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808247</v>
       </c>
       <c r="K6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808247</v>
       </c>
       <c r="L6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808247</v>
       </c>
       <c r="M6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808247</v>
       </c>
       <c r="N6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808249</v>
       </c>
       <c r="O6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808246</v>
       </c>
       <c r="P6" t="n">
-        <v>31816.16359737637</v>
+        <v>13820.67475808245</v>
       </c>
     </row>
   </sheetData>
